--- a/Week12/W12_1/Material/LINQ_Methods.xlsx
+++ b/Week12/W12_1/Material/LINQ_Methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/heiga_hr_nl/Documents/Documents/GitHub/OODP/Week12/W12_1/Material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{A73AFA0F-A3BC-4E7C-8F2D-DAC76A5178A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E08C14-0AC6-49CA-9E88-AEF005A6FE42}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{A73AFA0F-A3BC-4E7C-8F2D-DAC76A5178A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B45D9F-00DF-4AE2-B451-2A9DFC54366A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{FF78A85B-DB44-4C66-B539-359ADDCC737D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>Classification</t>
   </si>
@@ -406,12 +406,26 @@
   <si>
     <t>string lastTask = tasks.Last();</t>
   </si>
+  <si>
+    <t>LINQ method</t>
+  </si>
+  <si>
+    <t>IEnumerable&lt;IGrouping&lt;int, Person&gt;&gt; groupByAge = people.GroupBy(person =&gt; person.Age);
+foreach (var grouping in groupByAge) {
+        foreach (var person in grouping) {
+            Console.WriteLine(person.Name);
+        }
+}</t>
+  </si>
+  <si>
+    <t>int min = numbers.Min();</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +440,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -500,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -530,6 +550,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -541,12 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,13 +722,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>612913</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1530909</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>684696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -759,13 +783,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>574261</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>22087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1607584</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>726523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -817,6 +841,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,7 +1201,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1193,7 +1221,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1259,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1251,7 +1279,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1269,7 +1297,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1315,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1333,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1343,7 +1371,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1363,7 +1391,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="6" t="s">
         <v>63</v>
       </c>
@@ -1381,7 +1409,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="6" t="s">
         <v>64</v>
       </c>
@@ -1399,7 +1427,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1419,7 +1447,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1437,7 +1465,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="5" t="s">
         <v>83</v>
       </c>
@@ -1455,7 +1483,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1473,7 +1501,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1493,7 +1521,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1511,7 +1539,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1566,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5E5DE1-9389-43DF-A9E2-94A89FA9ED77}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1578,7 +1606,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>78</v>
@@ -1588,7 +1616,7 @@
       <c r="A2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1596,7 +1624,7 @@
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1604,152 +1632,152 @@
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>103</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="98.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>101</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
